--- a/data/trans_orig/P14B35-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B35-Provincia-trans_orig.xlsx
@@ -1421,19 +1421,19 @@
         <v>2898</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7867</v>
+        <v>8603</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01008979161277246</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0032482454976617</v>
+        <v>0.003213946296017631</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02738762342253489</v>
+        <v>0.02994888207818859</v>
       </c>
     </row>
     <row r="5">
@@ -1450,19 +1450,19 @@
         <v>284347</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>279378</v>
+        <v>278642</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>286312</v>
+        <v>286322</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9899102083872275</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9726123765774651</v>
+        <v>0.9700511179218114</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9967517545023383</v>
+        <v>0.9967860537039824</v>
       </c>
     </row>
     <row r="6">
@@ -1512,19 +1512,19 @@
         <v>12041</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6299</v>
+        <v>6865</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21976</v>
+        <v>20290</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02303275179365048</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01204943281378595</v>
+        <v>0.0131320184379202</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04203868211577215</v>
+        <v>0.03881292836719976</v>
       </c>
     </row>
     <row r="8">
@@ -1541,19 +1541,19 @@
         <v>510726</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>500791</v>
+        <v>502477</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>516468</v>
+        <v>515902</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9769672482063495</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9579613178842278</v>
+        <v>0.9611870716328004</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.987950567186213</v>
+        <v>0.9868679815620799</v>
       </c>
     </row>
     <row r="9">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5002</v>
+        <v>4936</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002891176380547452</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01466645917035446</v>
+        <v>0.01447319520228031</v>
       </c>
     </row>
     <row r="11">
@@ -1632,7 +1632,7 @@
         <v>340034</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>336018</v>
+        <v>336084</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>341020</v>
@@ -1641,7 +1641,7 @@
         <v>0.9971088236194525</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9853335408296455</v>
+        <v>0.9855268047977197</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1694,19 +1694,19 @@
         <v>3988</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9796</v>
+        <v>9814</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0102525310869267</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002624036753602764</v>
+        <v>0.002598649218045865</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02518553716228046</v>
+        <v>0.02523139745503823</v>
       </c>
     </row>
     <row r="14">
@@ -1723,19 +1723,19 @@
         <v>384963</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>379155</v>
+        <v>379137</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>387930</v>
+        <v>387940</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9897474689130733</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9748144628377192</v>
+        <v>0.9747686025449616</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9973759632463972</v>
+        <v>0.9974013507819541</v>
       </c>
     </row>
     <row r="15">
@@ -1785,19 +1785,19 @@
         <v>10458</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5661</v>
+        <v>4929</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19621</v>
+        <v>17816</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04762266295803377</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0257793000966219</v>
+        <v>0.02244806160898435</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08935105888529399</v>
+        <v>0.08113458418539496</v>
       </c>
     </row>
     <row r="17">
@@ -1814,19 +1814,19 @@
         <v>209133</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>199970</v>
+        <v>201775</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>213930</v>
+        <v>214662</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9523773370419663</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.910648941114707</v>
+        <v>0.9188654158146051</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9742206999033781</v>
+        <v>0.9775519383910156</v>
       </c>
     </row>
     <row r="18">
@@ -1876,19 +1876,19 @@
         <v>3051</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8561</v>
+        <v>8155</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0109694397664431</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003506679497457042</v>
+        <v>0.003498733620386216</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03078325250952045</v>
+        <v>0.02932359969863997</v>
       </c>
     </row>
     <row r="20">
@@ -1905,19 +1905,19 @@
         <v>275045</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>269535</v>
+        <v>269941</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>277121</v>
+        <v>277123</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9890305602335568</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9692167474904798</v>
+        <v>0.9706764003013599</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.996493320502543</v>
+        <v>0.9965012663796138</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>5047</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1084</v>
+        <v>1189</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12133</v>
+        <v>12531</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007274411863744373</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001562242381633705</v>
+        <v>0.001713347951065953</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01748628825043839</v>
+        <v>0.01806040909131197</v>
       </c>
     </row>
     <row r="23">
@@ -1996,19 +1996,19 @@
         <v>688806</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>681720</v>
+        <v>681322</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>692769</v>
+        <v>692664</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9927255881362557</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9825137117495616</v>
+        <v>0.9819395909086885</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9984377576183665</v>
+        <v>0.9982866520489341</v>
       </c>
     </row>
     <row r="24">
@@ -2058,19 +2058,19 @@
         <v>5238</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2076</v>
+        <v>2028</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12752</v>
+        <v>12006</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.006367787551568844</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002524071350847044</v>
+        <v>0.002465114161019256</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0155026096988377</v>
+        <v>0.01459532274413536</v>
       </c>
     </row>
     <row r="26">
@@ -2087,19 +2087,19 @@
         <v>817340</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>809826</v>
+        <v>810572</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>820502</v>
+        <v>820550</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9936322124484311</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9844973903011623</v>
+        <v>0.9854046772558651</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.997475928649153</v>
+        <v>0.9975348858389808</v>
       </c>
     </row>
     <row r="27">
@@ -2149,19 +2149,19 @@
         <v>43706</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>32841</v>
+        <v>32748</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>57872</v>
+        <v>59250</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01229738052485601</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.009240369375185556</v>
+        <v>0.009214256397767618</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01628327980634115</v>
+        <v>0.01667096135905205</v>
       </c>
     </row>
     <row r="29">
@@ -2178,19 +2178,19 @@
         <v>3510395</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3496229</v>
+        <v>3494851</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3521260</v>
+        <v>3521353</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.987702619475144</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.983716720193659</v>
+        <v>0.983329038640948</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9907596306248145</v>
+        <v>0.9907857436022324</v>
       </c>
     </row>
     <row r="30">
@@ -2362,19 +2362,19 @@
         <v>2785</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7628</v>
+        <v>7493</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009647179973206677</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003161747991897541</v>
+        <v>0.00316514874113424</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02642216990008374</v>
+        <v>0.02595291306346624</v>
       </c>
     </row>
     <row r="5">
@@ -2391,19 +2391,19 @@
         <v>285918</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>281075</v>
+        <v>281210</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>287790</v>
+        <v>287789</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9903528200267934</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9735778300999163</v>
+        <v>0.9740470869365337</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9968382520081024</v>
+        <v>0.9968348512588657</v>
       </c>
     </row>
     <row r="6">
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6011</v>
+        <v>6916</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003802549790937066</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01149112816280902</v>
+        <v>0.0132214212487394</v>
       </c>
     </row>
     <row r="8">
@@ -2482,7 +2482,7 @@
         <v>521095</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>517073</v>
+        <v>516168</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>523084</v>
@@ -2491,7 +2491,7 @@
         <v>0.9961974502090629</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9885088718371909</v>
+        <v>0.9867785787512607</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4600</v>
+        <v>6000</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002734092928523754</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01367800292474243</v>
+        <v>0.01784051766119721</v>
       </c>
     </row>
     <row r="11">
@@ -2573,7 +2573,7 @@
         <v>335389</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>331709</v>
+        <v>330309</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>336309</v>
@@ -2582,7 +2582,7 @@
         <v>0.9972659070714762</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9863219970752576</v>
+        <v>0.9821594823388025</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -2638,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6792</v>
+        <v>6664</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004853027327252579</v>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01753716047622629</v>
+        <v>0.01720751374870984</v>
       </c>
     </row>
     <row r="14">
@@ -2664,7 +2664,7 @@
         <v>385404</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>380491</v>
+        <v>380619</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>387283</v>
@@ -2673,7 +2673,7 @@
         <v>0.9951469726727474</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9824628395237727</v>
+        <v>0.9827924862512901</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6629</v>
+        <v>7247</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009450555090544809</v>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0303279593926789</v>
+        <v>0.03315494659630008</v>
       </c>
     </row>
     <row r="17">
@@ -2755,7 +2755,7 @@
         <v>216521</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>211958</v>
+        <v>211340</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>218587</v>
@@ -2764,7 +2764,7 @@
         <v>0.9905494449094552</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9696720406073229</v>
+        <v>0.9668450534037003</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -2892,19 +2892,19 @@
         <v>5781</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2573</v>
+        <v>2158</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12062</v>
+        <v>12930</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.008361977350717332</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003721612239391755</v>
+        <v>0.003122256129408297</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01744797129536502</v>
+        <v>0.01870423333308842</v>
       </c>
     </row>
     <row r="23">
@@ -2921,19 +2921,19 @@
         <v>685513</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>679232</v>
+        <v>678364</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>688721</v>
+        <v>689136</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9916380226492827</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.982552028704635</v>
+        <v>0.981295766666911</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.996278387760608</v>
+        <v>0.9968777438705916</v>
       </c>
     </row>
     <row r="24">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7725</v>
+        <v>6971</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.002392849214576693</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.009349873036841552</v>
+        <v>0.008437469265038688</v>
       </c>
     </row>
     <row r="26">
@@ -3012,7 +3012,7 @@
         <v>824190</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>818442</v>
+        <v>819196</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>826167</v>
@@ -3021,7 +3021,7 @@
         <v>0.9976071507854233</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9906501269631558</v>
+        <v>0.9915625307349614</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -3074,19 +3074,19 @@
         <v>17396</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>10552</v>
+        <v>11213</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>26051</v>
+        <v>27400</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.004907958235385753</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.002976919334980936</v>
+        <v>0.003163506210374268</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.007349480247965187</v>
+        <v>0.007730235636675035</v>
       </c>
     </row>
     <row r="29">
@@ -3103,19 +3103,19 @@
         <v>3527146</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3518491</v>
+        <v>3517142</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3533990</v>
+        <v>3533329</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9950920417646143</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9926505197520347</v>
+        <v>0.9922697643633248</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.997023080665019</v>
+        <v>0.9968364937896256</v>
       </c>
     </row>
     <row r="30">
@@ -3287,19 +3287,19 @@
         <v>1433</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3909</v>
+        <v>3756</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004532482763503369</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00133813041832104</v>
+        <v>0.001293473599670103</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01236722221153327</v>
+        <v>0.01188505253592308</v>
       </c>
     </row>
     <row r="5">
@@ -3316,19 +3316,19 @@
         <v>314628</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>312152</v>
+        <v>312305</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>315638</v>
+        <v>315652</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9954675172364966</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9876327777884668</v>
+        <v>0.9881149474640775</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9986618695816789</v>
+        <v>0.9987065264003299</v>
       </c>
     </row>
     <row r="6">
@@ -3378,19 +3378,19 @@
         <v>18372</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9939</v>
+        <v>11046</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29698</v>
+        <v>30310</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.03391469477790057</v>
+        <v>0.03391469477790056</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01834687637504591</v>
+        <v>0.02039062428644827</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05482204807403254</v>
+        <v>0.05595186181722294</v>
       </c>
     </row>
     <row r="8">
@@ -3407,19 +3407,19 @@
         <v>523342</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>512016</v>
+        <v>511404</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>531775</v>
+        <v>530668</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9660853052220995</v>
+        <v>0.9660853052220993</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9451779519259674</v>
+        <v>0.9440481381827771</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9816531236249539</v>
+        <v>0.9796093757135518</v>
       </c>
     </row>
     <row r="9">
@@ -3469,19 +3469,19 @@
         <v>7315</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3279</v>
+        <v>3090</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15530</v>
+        <v>14858</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.02052627800981904</v>
+        <v>0.02052627800981905</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009201103910744765</v>
+        <v>0.008670477852115801</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04357782224720558</v>
+        <v>0.04169103138148327</v>
       </c>
     </row>
     <row r="11">
@@ -3498,19 +3498,19 @@
         <v>349066</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>340851</v>
+        <v>341523</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>353102</v>
+        <v>353291</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.979473721990181</v>
+        <v>0.9794737219901809</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9564221777527947</v>
+        <v>0.9583089686185168</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9907988960892553</v>
+        <v>0.9913295221478848</v>
       </c>
     </row>
     <row r="12">
@@ -3560,19 +3560,19 @@
         <v>13150</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7081</v>
+        <v>7106</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24610</v>
+        <v>23721</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03121043315195471</v>
+        <v>0.0312104331519547</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01680688729087058</v>
+        <v>0.01686474714223251</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05840974935290867</v>
+        <v>0.05629999924517071</v>
       </c>
     </row>
     <row r="14">
@@ -3589,19 +3589,19 @@
         <v>408179</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>396719</v>
+        <v>397608</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>414248</v>
+        <v>414223</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9687895668480452</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.941590250647091</v>
+        <v>0.9437000007548293</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9831931127091293</v>
+        <v>0.9831352528577674</v>
       </c>
     </row>
     <row r="15">
@@ -3651,19 +3651,19 @@
         <v>5504</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2520</v>
+        <v>2806</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9992</v>
+        <v>10185</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.02426701324594288</v>
+        <v>0.02426701324594287</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01111188067382335</v>
+        <v>0.01236923963200202</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0440529616870993</v>
+        <v>0.04490087971576606</v>
       </c>
     </row>
     <row r="17">
@@ -3680,19 +3680,19 @@
         <v>221319</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>216831</v>
+        <v>216638</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>224303</v>
+        <v>224017</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9757329867540572</v>
+        <v>0.9757329867540571</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9559470383128997</v>
+        <v>0.9550991202842336</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9888881193261764</v>
+        <v>0.9876307603679979</v>
       </c>
     </row>
     <row r="18">
@@ -3742,19 +3742,19 @@
         <v>6953</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3279</v>
+        <v>3210</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13079</v>
+        <v>12993</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02642802435818914</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01246483611968636</v>
+        <v>0.01220218652608813</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04971130125544351</v>
+        <v>0.04938291073420017</v>
       </c>
     </row>
     <row r="20">
@@ -3771,19 +3771,19 @@
         <v>256146</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>250020</v>
+        <v>250106</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>259820</v>
+        <v>259889</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9735719756418109</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9502886987445565</v>
+        <v>0.9506170892657998</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9875351638803136</v>
+        <v>0.9877978134739119</v>
       </c>
     </row>
     <row r="21">
@@ -3833,19 +3833,19 @@
         <v>59105</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>45444</v>
+        <v>44545</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>77524</v>
+        <v>76890</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.07708767284642308</v>
+        <v>0.07708767284642307</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05927130584469463</v>
+        <v>0.05809841568618424</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1011117584008254</v>
+        <v>0.1002845247598837</v>
       </c>
     </row>
     <row r="23">
@@ -3862,19 +3862,19 @@
         <v>707613</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>689194</v>
+        <v>689828</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>721274</v>
+        <v>722173</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9229123271535769</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8988882415991746</v>
+        <v>0.8997154752401161</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9407286941553058</v>
+        <v>0.9419015843138162</v>
       </c>
     </row>
     <row r="24">
@@ -3924,19 +3924,19 @@
         <v>8331</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3956</v>
+        <v>3702</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>17426</v>
+        <v>17302</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01003036663958938</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004762401147828613</v>
+        <v>0.004456548169563116</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02097946915444362</v>
+        <v>0.02083085197074864</v>
       </c>
     </row>
     <row r="26">
@@ -3953,19 +3953,19 @@
         <v>822278</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>813183</v>
+        <v>813307</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>826653</v>
+        <v>826907</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9899696333604106</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9790205308455563</v>
+        <v>0.9791691480292521</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9952375988521714</v>
+        <v>0.9955434518304369</v>
       </c>
     </row>
     <row r="27">
@@ -4015,19 +4015,19 @@
         <v>120163</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>97746</v>
+        <v>98943</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>146697</v>
+        <v>146726</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03227815156190884</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02625662940003529</v>
+        <v>0.0265779752464241</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03940580678621171</v>
+        <v>0.03941339884312332</v>
       </c>
     </row>
     <row r="29">
@@ -4044,19 +4044,19 @@
         <v>3602572</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3576038</v>
+        <v>3576009</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3624989</v>
+        <v>3623792</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9677218484380912</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9605941932137884</v>
+        <v>0.9605866011568763</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9737433705999647</v>
+        <v>0.9734220247535756</v>
       </c>
     </row>
     <row r="30">
